--- a/emails_db.xlsx
+++ b/emails_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexp\PycharmProjects\smtp-gmail-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24179AB-46C7-4B37-8CC8-CA8E838FF4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC4B936-2CBF-4B20-AEA6-4567D226FEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="emails_db" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>thegtt@google.com</t>
   </si>
@@ -29,6 +29,24 @@
   </si>
   <si>
     <t>ttyuyh@google.com</t>
+  </si>
+  <si>
+    <t>rttyhht@gmail.com</t>
+  </si>
+  <si>
+    <t>htrtr@gmail.com</t>
+  </si>
+  <si>
+    <t>ggrrg@gmail.com</t>
+  </si>
+  <si>
+    <t>hththtth</t>
+  </si>
+  <si>
+    <t>hjjk</t>
+  </si>
+  <si>
+    <t>alexpyslar03@yandex.ru</t>
   </si>
 </sst>
 </file>
@@ -899,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,15 +947,46 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{5DCF0DE5-D148-4196-A145-7A0FEE08B982}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{F067B033-D26A-4C75-B800-2D6BD821059D}"/>
     <hyperlink ref="A4" r:id="rId3" xr:uid="{AE92EE9A-5A93-4907-A20D-A51EA71693B5}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{5B3B29D6-C990-4EFF-89B8-7E6F67ECECD5}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{43E69DC0-F8B1-474F-8825-FBAFE4D5F56D}"/>
+    <hyperlink ref="A9" r:id="rId6" xr:uid="{4E9F39F3-5379-4528-AF05-803540F2A394}"/>
+    <hyperlink ref="A12" r:id="rId7" xr:uid="{4A583274-FA14-41F3-B792-491DB2479475}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/emails_db.xlsx
+++ b/emails_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexp\PycharmProjects\smtp-gmail-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC4B936-2CBF-4B20-AEA6-4567D226FEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BB6427-3C3B-4FD0-A6CF-62FF1FD7DF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,33 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>thegtt@google.com</t>
+    <t>alexpyslar03@gmail.com</t>
   </si>
   <si>
-    <t>eetuyh@google.com</t>
-  </si>
-  <si>
-    <t>ttyuyh@google.com</t>
-  </si>
-  <si>
-    <t>rttyhht@gmail.com</t>
-  </si>
-  <si>
-    <t>htrtr@gmail.com</t>
-  </si>
-  <si>
-    <t>ggrrg@gmail.com</t>
-  </si>
-  <si>
-    <t>hththtth</t>
-  </si>
-  <si>
-    <t>hjjk</t>
-  </si>
-  <si>
-    <t>alexpyslar03@yandex.ru</t>
+    <t>beelzeebultadgo@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -920,7 +899,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,51 +921,25 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{5DCF0DE5-D148-4196-A145-7A0FEE08B982}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{F067B033-D26A-4C75-B800-2D6BD821059D}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{AE92EE9A-5A93-4907-A20D-A51EA71693B5}"/>
-    <hyperlink ref="A6" r:id="rId4" xr:uid="{5B3B29D6-C990-4EFF-89B8-7E6F67ECECD5}"/>
-    <hyperlink ref="A7" r:id="rId5" xr:uid="{43E69DC0-F8B1-474F-8825-FBAFE4D5F56D}"/>
-    <hyperlink ref="A9" r:id="rId6" xr:uid="{4E9F39F3-5379-4528-AF05-803540F2A394}"/>
-    <hyperlink ref="A12" r:id="rId7" xr:uid="{4A583274-FA14-41F3-B792-491DB2479475}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{799BCE7C-A8A4-4C62-A9E2-86425D0A80D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>